--- a/output/dfcade2.xlsx
+++ b/output/dfcade2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/481e8b25b6218866/R/Rprojetos/cade/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_00DB1ED08F79A8536E3CA493EA7BD2727A455025" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94F732C6-FFB0-46B0-8A4F-4D06814F77DD}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_00DB1ED08F79A8536E3CA493EA7BD2727A455025" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF358FAF-3CB6-45F3-BD88-EF4E44D0E545}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -693,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J39" sqref="J32:J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,10 +797,10 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2">
-        <v>41165</v>
+        <v>41774</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
@@ -809,7 +809,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -824,7 +824,7 @@
         <v>28</v>
       </c>
       <c r="J2" s="2">
-        <v>41054</v>
+        <v>42930</v>
       </c>
       <c r="K2" t="s">
         <v>35</v>
@@ -835,11 +835,8 @@
       <c r="M2" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="2">
-        <v>42199</v>
-      </c>
       <c r="O2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P2" t="s">
         <v>27</v>
@@ -851,16 +848,13 @@
         <v>30</v>
       </c>
       <c r="T2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2">
-        <v>-111</v>
-      </c>
-      <c r="W2">
-        <v>1145</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -933,25 +927,25 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="B4" s="2">
-        <v>41220</v>
+        <v>42118</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
         <v>27</v>
@@ -960,10 +954,10 @@
         <v>28</v>
       </c>
       <c r="J4" s="2">
-        <v>42318</v>
+        <v>43375</v>
       </c>
       <c r="K4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="L4" t="s">
         <v>30</v>
@@ -972,7 +966,7 @@
         <v>30</v>
       </c>
       <c r="N4" s="2">
-        <v>42389</v>
+        <v>43509</v>
       </c>
       <c r="O4" t="s">
         <v>35</v>
@@ -987,33 +981,33 @@
         <v>30</v>
       </c>
       <c r="T4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4">
-        <v>1098</v>
+        <v>1257</v>
       </c>
       <c r="W4">
-        <v>71</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="B5" s="2">
-        <v>41942</v>
+        <v>42817</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -1028,7 +1022,7 @@
         <v>28</v>
       </c>
       <c r="J5" s="2">
-        <v>42412</v>
+        <v>43567</v>
       </c>
       <c r="K5" t="s">
         <v>35</v>
@@ -1040,7 +1034,7 @@
         <v>30</v>
       </c>
       <c r="N5" s="2">
-        <v>42627</v>
+        <v>43627</v>
       </c>
       <c r="O5" t="s">
         <v>35</v>
@@ -1061,18 +1055,18 @@
         <v>0</v>
       </c>
       <c r="V5">
-        <v>470</v>
+        <v>750</v>
       </c>
       <c r="W5">
-        <v>215</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B6" s="2">
-        <v>41774</v>
+        <v>41036</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
@@ -1081,7 +1075,7 @@
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
         <v>27</v>
@@ -1096,10 +1090,10 @@
         <v>28</v>
       </c>
       <c r="J6" s="2">
-        <v>42930</v>
+        <v>43613</v>
       </c>
       <c r="K6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="L6" t="s">
         <v>30</v>
@@ -1107,40 +1101,49 @@
       <c r="M6" t="s">
         <v>30</v>
       </c>
+      <c r="N6" s="2">
+        <v>44286</v>
+      </c>
       <c r="O6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q6" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="R6" s="2">
+        <v>44286</v>
       </c>
       <c r="S6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T6" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>88205621.900000006</v>
       </c>
       <c r="V6">
-        <v>1156</v>
+        <v>2577</v>
+      </c>
+      <c r="W6">
+        <v>673</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="B7" s="2">
-        <v>42118</v>
+        <v>42867</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="E7" t="s">
         <v>26</v>
@@ -1149,7 +1152,7 @@
         <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H7" t="s">
         <v>27</v>
@@ -1158,10 +1161,10 @@
         <v>28</v>
       </c>
       <c r="J7" s="2">
-        <v>43375</v>
+        <v>43788</v>
       </c>
       <c r="K7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="L7" t="s">
         <v>30</v>
@@ -1170,7 +1173,7 @@
         <v>30</v>
       </c>
       <c r="N7" s="2">
-        <v>43509</v>
+        <v>43908</v>
       </c>
       <c r="O7" t="s">
         <v>35</v>
@@ -1181,8 +1184,11 @@
       <c r="Q7" t="s">
         <v>30</v>
       </c>
+      <c r="R7" s="2">
+        <v>43908</v>
+      </c>
       <c r="S7" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="T7" t="s">
         <v>32</v>
@@ -1191,33 +1197,33 @@
         <v>0</v>
       </c>
       <c r="V7">
-        <v>1257</v>
+        <v>921</v>
       </c>
       <c r="W7">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="B8" s="2">
-        <v>42258</v>
+        <v>43614</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H8" t="s">
         <v>27</v>
@@ -1226,10 +1232,10 @@
         <v>28</v>
       </c>
       <c r="J8" s="2">
-        <v>43467</v>
+        <v>44056</v>
       </c>
       <c r="K8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="L8" t="s">
         <v>30</v>
@@ -1238,7 +1244,7 @@
         <v>30</v>
       </c>
       <c r="N8" s="2">
-        <v>43754</v>
+        <v>44314</v>
       </c>
       <c r="O8" t="s">
         <v>35</v>
@@ -1259,24 +1265,24 @@
         <v>0</v>
       </c>
       <c r="V8">
-        <v>1209</v>
+        <v>442</v>
       </c>
       <c r="W8">
-        <v>287</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="B9" s="2">
-        <v>42817</v>
+        <v>43812</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="E9" t="s">
         <v>26</v>
@@ -1294,10 +1300,10 @@
         <v>28</v>
       </c>
       <c r="J9" s="2">
-        <v>43567</v>
+        <v>44124</v>
       </c>
       <c r="K9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="L9" t="s">
         <v>30</v>
@@ -1306,45 +1312,48 @@
         <v>30</v>
       </c>
       <c r="N9" s="2">
-        <v>43627</v>
+        <v>44489</v>
       </c>
       <c r="O9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="P9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q9" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="R9" s="2">
+        <v>44601</v>
       </c>
       <c r="S9" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="T9" t="s">
         <v>32</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>55830821.189999998</v>
       </c>
       <c r="V9">
-        <v>750</v>
+        <v>312</v>
       </c>
       <c r="W9">
-        <v>60</v>
+        <v>365</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="B10" s="2">
-        <v>41036</v>
+        <v>42198</v>
       </c>
       <c r="C10" t="s">
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="E10" t="s">
         <v>26</v>
@@ -1353,7 +1362,7 @@
         <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H10" t="s">
         <v>27</v>
@@ -1362,10 +1371,10 @@
         <v>28</v>
       </c>
       <c r="J10" s="2">
-        <v>43613</v>
+        <v>44340</v>
       </c>
       <c r="K10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="L10" t="s">
         <v>30</v>
@@ -1374,51 +1383,51 @@
         <v>30</v>
       </c>
       <c r="N10" s="2">
-        <v>44286</v>
+        <v>44426</v>
       </c>
       <c r="O10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="P10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="R10" s="2">
-        <v>44286</v>
+        <v>44426</v>
       </c>
       <c r="S10" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="T10" t="s">
         <v>32</v>
       </c>
       <c r="U10">
-        <v>88205621.900000006</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>2577</v>
+        <v>2142</v>
       </c>
       <c r="W10">
-        <v>673</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="B11" s="2">
-        <v>42047</v>
+        <v>43573</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
         <v>28</v>
@@ -1430,10 +1439,10 @@
         <v>27</v>
       </c>
       <c r="I11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J11" s="2">
-        <v>43613</v>
+        <v>45233</v>
       </c>
       <c r="K11" t="s">
         <v>29</v>
@@ -1444,14 +1453,11 @@
       <c r="M11" t="s">
         <v>30</v>
       </c>
-      <c r="N11" s="2">
-        <v>44300</v>
-      </c>
       <c r="O11" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q11" t="s">
         <v>30</v>
@@ -1466,27 +1472,24 @@
         <v>0</v>
       </c>
       <c r="V11">
-        <v>1566</v>
-      </c>
-      <c r="W11">
-        <v>687</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="B12" s="2">
-        <v>41999</v>
+        <v>45313</v>
       </c>
       <c r="C12" t="s">
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F12" t="s">
         <v>27</v>
@@ -1498,13 +1501,10 @@
         <v>27</v>
       </c>
       <c r="I12" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" s="2">
-        <v>43770</v>
+        <v>27</v>
       </c>
       <c r="K12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L12" t="s">
         <v>30</v>
@@ -1512,55 +1512,43 @@
       <c r="M12" t="s">
         <v>30</v>
       </c>
-      <c r="N12" s="2">
-        <v>43985</v>
-      </c>
       <c r="O12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" t="s">
-        <v>29</v>
-      </c>
-      <c r="R12" s="2">
-        <v>44069</v>
+        <v>30</v>
       </c>
       <c r="S12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T12" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="U12">
-        <v>2847252.94</v>
-      </c>
-      <c r="V12">
-        <v>1771</v>
-      </c>
-      <c r="W12">
-        <v>215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="B13" s="2">
-        <v>42867</v>
+        <v>41220</v>
       </c>
       <c r="C13" t="s">
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G13" t="s">
         <v>27</v>
@@ -1572,7 +1560,7 @@
         <v>28</v>
       </c>
       <c r="J13" s="2">
-        <v>43788</v>
+        <v>42318</v>
       </c>
       <c r="K13" t="s">
         <v>35</v>
@@ -1584,7 +1572,7 @@
         <v>30</v>
       </c>
       <c r="N13" s="2">
-        <v>43908</v>
+        <v>42389</v>
       </c>
       <c r="O13" t="s">
         <v>35</v>
@@ -1595,43 +1583,40 @@
       <c r="Q13" t="s">
         <v>30</v>
       </c>
-      <c r="R13" s="2">
-        <v>43908</v>
-      </c>
       <c r="S13" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="T13" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="U13">
         <v>0</v>
       </c>
       <c r="V13">
-        <v>921</v>
+        <v>1098</v>
       </c>
       <c r="W13">
-        <v>120</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="B14" s="2">
-        <v>43614</v>
+        <v>41942</v>
       </c>
       <c r="C14" t="s">
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G14" t="s">
         <v>27</v>
@@ -1643,10 +1628,10 @@
         <v>28</v>
       </c>
       <c r="J14" s="2">
-        <v>44056</v>
+        <v>42412</v>
       </c>
       <c r="K14" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="L14" t="s">
         <v>30</v>
@@ -1655,7 +1640,7 @@
         <v>30</v>
       </c>
       <c r="N14" s="2">
-        <v>44314</v>
+        <v>42627</v>
       </c>
       <c r="O14" t="s">
         <v>35</v>
@@ -1676,24 +1661,24 @@
         <v>0</v>
       </c>
       <c r="V14">
-        <v>442</v>
+        <v>470</v>
       </c>
       <c r="W14">
-        <v>258</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="B15" s="2">
-        <v>41843</v>
+        <v>42258</v>
       </c>
       <c r="C15" t="s">
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="E15" t="s">
         <v>38</v>
@@ -1702,7 +1687,7 @@
         <v>28</v>
       </c>
       <c r="G15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H15" t="s">
         <v>27</v>
@@ -1711,10 +1696,10 @@
         <v>28</v>
       </c>
       <c r="J15" s="2">
-        <v>44078</v>
+        <v>43467</v>
       </c>
       <c r="K15" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="L15" t="s">
         <v>30</v>
@@ -1723,7 +1708,7 @@
         <v>30</v>
       </c>
       <c r="N15" s="2">
-        <v>44314</v>
+        <v>43754</v>
       </c>
       <c r="O15" t="s">
         <v>35</v>
@@ -1744,30 +1729,30 @@
         <v>0</v>
       </c>
       <c r="V15">
-        <v>2235</v>
+        <v>1209</v>
       </c>
       <c r="W15">
-        <v>236</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="B16" s="2">
-        <v>43812</v>
+        <v>42047</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G16" t="s">
         <v>27</v>
@@ -1779,7 +1764,7 @@
         <v>28</v>
       </c>
       <c r="J16" s="2">
-        <v>44124</v>
+        <v>43613</v>
       </c>
       <c r="K16" t="s">
         <v>29</v>
@@ -1791,54 +1776,51 @@
         <v>30</v>
       </c>
       <c r="N16" s="2">
-        <v>44489</v>
+        <v>44300</v>
       </c>
       <c r="O16" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="P16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q16" t="s">
-        <v>29</v>
-      </c>
-      <c r="R16" s="2">
-        <v>44601</v>
+        <v>30</v>
       </c>
       <c r="S16" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="T16" t="s">
         <v>32</v>
       </c>
       <c r="U16">
-        <v>55830821.189999998</v>
+        <v>0</v>
       </c>
       <c r="V16">
-        <v>312</v>
+        <v>1566</v>
       </c>
       <c r="W16">
-        <v>365</v>
+        <v>687</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="B17" s="2">
-        <v>42417</v>
+        <v>41999</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s">
         <v>38</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G17" t="s">
         <v>27</v>
@@ -1850,7 +1832,7 @@
         <v>28</v>
       </c>
       <c r="J17" s="2">
-        <v>44259</v>
+        <v>43770</v>
       </c>
       <c r="K17" t="s">
         <v>29</v>
@@ -1862,7 +1844,7 @@
         <v>30</v>
       </c>
       <c r="N17" s="2">
-        <v>44643</v>
+        <v>43985</v>
       </c>
       <c r="O17" t="s">
         <v>29</v>
@@ -1874,39 +1856,39 @@
         <v>29</v>
       </c>
       <c r="R17" s="2">
-        <v>44692</v>
+        <v>44069</v>
       </c>
       <c r="S17" t="s">
         <v>31</v>
       </c>
       <c r="T17" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="U17">
-        <v>26462771.07</v>
+        <v>2847252.94</v>
       </c>
       <c r="V17">
-        <v>1842</v>
+        <v>1771</v>
       </c>
       <c r="W17">
-        <v>384</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="B18" s="2">
-        <v>43266</v>
+        <v>41843</v>
       </c>
       <c r="C18" t="s">
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F18" t="s">
         <v>28</v>
@@ -1921,7 +1903,7 @@
         <v>28</v>
       </c>
       <c r="J18" s="2">
-        <v>44299</v>
+        <v>44078</v>
       </c>
       <c r="K18" t="s">
         <v>29</v>
@@ -1933,57 +1915,54 @@
         <v>30</v>
       </c>
       <c r="N18" s="2">
-        <v>44363</v>
+        <v>44314</v>
       </c>
       <c r="O18" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="P18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q18" t="s">
-        <v>29</v>
-      </c>
-      <c r="R18" s="2">
-        <v>44363</v>
+        <v>30</v>
       </c>
       <c r="S18" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="T18" t="s">
         <v>32</v>
       </c>
       <c r="U18">
-        <v>159615</v>
+        <v>0</v>
       </c>
       <c r="V18">
-        <v>1033</v>
+        <v>2235</v>
       </c>
       <c r="W18">
-        <v>64</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B19" s="2">
-        <v>42198</v>
+        <v>42417</v>
       </c>
       <c r="C19" t="s">
         <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E19" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H19" t="s">
         <v>27</v>
@@ -1992,10 +1971,10 @@
         <v>28</v>
       </c>
       <c r="J19" s="2">
-        <v>44340</v>
+        <v>44259</v>
       </c>
       <c r="K19" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="L19" t="s">
         <v>30</v>
@@ -2004,34 +1983,34 @@
         <v>30</v>
       </c>
       <c r="N19" s="2">
-        <v>44426</v>
+        <v>44643</v>
       </c>
       <c r="O19" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="P19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q19" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="R19" s="2">
-        <v>44426</v>
+        <v>44692</v>
       </c>
       <c r="S19" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="T19" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>26462771.07</v>
       </c>
       <c r="V19">
-        <v>2142</v>
+        <v>1842</v>
       </c>
       <c r="W19">
-        <v>86</v>
+        <v>384</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
@@ -2104,19 +2083,19 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2">
-        <v>42152</v>
+        <v>41191</v>
       </c>
       <c r="C21" t="s">
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F21" t="s">
         <v>28</v>
@@ -2131,7 +2110,7 @@
         <v>28</v>
       </c>
       <c r="J21" s="2">
-        <v>44627</v>
+        <v>44747</v>
       </c>
       <c r="K21" t="s">
         <v>29</v>
@@ -2143,7 +2122,7 @@
         <v>30</v>
       </c>
       <c r="N21" s="2">
-        <v>44888</v>
+        <v>44965</v>
       </c>
       <c r="O21" t="s">
         <v>29</v>
@@ -2161,33 +2140,33 @@
         <v>32</v>
       </c>
       <c r="U21">
-        <v>200000</v>
+        <v>732001.64</v>
       </c>
       <c r="V21">
-        <v>2475</v>
+        <v>3556</v>
       </c>
       <c r="W21">
-        <v>261</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B22" s="2">
-        <v>41191</v>
+        <v>41624</v>
       </c>
       <c r="C22" t="s">
         <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E22" t="s">
         <v>38</v>
       </c>
       <c r="F22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G22" t="s">
         <v>27</v>
@@ -2196,10 +2175,10 @@
         <v>27</v>
       </c>
       <c r="I22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J22" s="2">
-        <v>44747</v>
+        <v>45282</v>
       </c>
       <c r="K22" t="s">
         <v>29</v>
@@ -2210,14 +2189,11 @@
       <c r="M22" t="s">
         <v>30</v>
       </c>
-      <c r="N22" s="2">
-        <v>44965</v>
-      </c>
       <c r="O22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P22" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q22" t="s">
         <v>30</v>
@@ -2229,30 +2205,27 @@
         <v>32</v>
       </c>
       <c r="U22">
-        <v>732001.64</v>
+        <v>0</v>
       </c>
       <c r="V22">
-        <v>3556</v>
-      </c>
-      <c r="W22">
-        <v>218</v>
+        <v>3658</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B23" s="2">
-        <v>43573</v>
+        <v>43507</v>
       </c>
       <c r="C23" t="s">
         <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E23" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F23" t="s">
         <v>28</v>
@@ -2267,7 +2240,7 @@
         <v>27</v>
       </c>
       <c r="J23" s="2">
-        <v>45233</v>
+        <v>45282</v>
       </c>
       <c r="K23" t="s">
         <v>29</v>
@@ -2297,27 +2270,27 @@
         <v>0</v>
       </c>
       <c r="V23">
-        <v>1660</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B24" s="2">
-        <v>41624</v>
+        <v>41970</v>
       </c>
       <c r="C24" t="s">
         <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="E24" t="s">
         <v>38</v>
       </c>
       <c r="F24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G24" t="s">
         <v>27</v>
@@ -2328,11 +2301,8 @@
       <c r="I24" t="s">
         <v>27</v>
       </c>
-      <c r="J24" s="2">
-        <v>45282</v>
-      </c>
       <c r="K24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L24" t="s">
         <v>30</v>
@@ -2358,22 +2328,19 @@
       <c r="U24">
         <v>0</v>
       </c>
-      <c r="V24">
-        <v>3658</v>
-      </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="B25" s="2">
-        <v>43507</v>
+        <v>42255</v>
       </c>
       <c r="C25" t="s">
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="E25" t="s">
         <v>38</v>
@@ -2390,11 +2357,8 @@
       <c r="I25" t="s">
         <v>27</v>
       </c>
-      <c r="J25" s="2">
-        <v>45282</v>
-      </c>
       <c r="K25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L25" t="s">
         <v>30</v>
@@ -2406,7 +2370,7 @@
         <v>30</v>
       </c>
       <c r="P25" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q25" t="s">
         <v>30</v>
@@ -2420,28 +2384,25 @@
       <c r="U25">
         <v>0</v>
       </c>
-      <c r="V25">
-        <v>1775</v>
-      </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="B26" s="2">
-        <v>41970</v>
+        <v>42867</v>
       </c>
       <c r="C26" t="s">
         <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="E26" t="s">
         <v>38</v>
       </c>
       <c r="F26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G26" t="s">
         <v>27</v>
@@ -2482,19 +2443,19 @@
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="B27" s="2">
-        <v>42037</v>
+        <v>43003</v>
       </c>
       <c r="C27" t="s">
         <v>24</v>
       </c>
       <c r="D27" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="E27" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F27" t="s">
         <v>27</v>
@@ -2521,7 +2482,7 @@
         <v>30</v>
       </c>
       <c r="P27" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q27" t="s">
         <v>30</v>
@@ -2530,7 +2491,7 @@
         <v>30</v>
       </c>
       <c r="T27" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="U27">
         <v>0</v>
@@ -2538,19 +2499,19 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="B28" s="2">
-        <v>42139</v>
+        <v>43585</v>
       </c>
       <c r="C28" t="s">
         <v>24</v>
       </c>
       <c r="D28" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="E28" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F28" t="s">
         <v>28</v>
@@ -2577,7 +2538,7 @@
         <v>30</v>
       </c>
       <c r="P28" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q28" t="s">
         <v>30</v>
@@ -2594,22 +2555,22 @@
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="B29" s="2">
-        <v>42255</v>
+        <v>43679</v>
       </c>
       <c r="C29" t="s">
         <v>24</v>
       </c>
       <c r="D29" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="E29" t="s">
         <v>38</v>
       </c>
       <c r="F29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G29" t="s">
         <v>27</v>
@@ -2633,7 +2594,7 @@
         <v>30</v>
       </c>
       <c r="P29" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q29" t="s">
         <v>30</v>
@@ -2650,19 +2611,19 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="B30" s="2">
-        <v>42797</v>
+        <v>44144</v>
       </c>
       <c r="C30" t="s">
         <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E30" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F30" t="s">
         <v>27</v>
@@ -2698,7 +2659,7 @@
         <v>30</v>
       </c>
       <c r="T30" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="U30">
         <v>0</v>
@@ -2706,16 +2667,16 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="B31" s="2">
-        <v>42867</v>
+        <v>44306</v>
       </c>
       <c r="C31" t="s">
         <v>24</v>
       </c>
       <c r="D31" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="E31" t="s">
         <v>38</v>
@@ -2762,19 +2723,19 @@
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="B32" s="2">
-        <v>43003</v>
+        <v>41165</v>
       </c>
       <c r="C32" t="s">
         <v>24</v>
       </c>
       <c r="D32" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="E32" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F32" t="s">
         <v>27</v>
@@ -2786,10 +2747,13 @@
         <v>27</v>
       </c>
       <c r="I32" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="J32" s="2">
+        <v>41054</v>
       </c>
       <c r="K32" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L32" t="s">
         <v>30</v>
@@ -2797,11 +2761,14 @@
       <c r="M32" t="s">
         <v>30</v>
       </c>
+      <c r="N32" s="2">
+        <v>42199</v>
+      </c>
       <c r="O32" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="P32" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q32" t="s">
         <v>30</v>
@@ -2815,25 +2782,31 @@
       <c r="U32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V32">
+        <v>-111</v>
+      </c>
+      <c r="W32">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B33" s="2">
-        <v>43475</v>
+        <v>43266</v>
       </c>
       <c r="C33" t="s">
         <v>24</v>
       </c>
       <c r="D33" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E33" t="s">
         <v>34</v>
       </c>
       <c r="F33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G33" t="s">
         <v>27</v>
@@ -2842,10 +2815,13 @@
         <v>27</v>
       </c>
       <c r="I33" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="J33" s="2">
+        <v>44299</v>
       </c>
       <c r="K33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L33" t="s">
         <v>30</v>
@@ -2853,40 +2829,52 @@
       <c r="M33" t="s">
         <v>30</v>
       </c>
+      <c r="N33" s="2">
+        <v>44363</v>
+      </c>
       <c r="O33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q33" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="R33" s="2">
+        <v>44363</v>
       </c>
       <c r="S33" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="T33" t="s">
         <v>32</v>
       </c>
       <c r="U33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+        <v>159615</v>
+      </c>
+      <c r="V33">
+        <v>1033</v>
+      </c>
+      <c r="W33">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="B34" s="2">
-        <v>43585</v>
+        <v>42152</v>
       </c>
       <c r="C34" t="s">
         <v>24</v>
       </c>
       <c r="D34" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="E34" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F34" t="s">
         <v>28</v>
@@ -2898,10 +2886,13 @@
         <v>27</v>
       </c>
       <c r="I34" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="J34" s="2">
+        <v>44627</v>
       </c>
       <c r="K34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L34" t="s">
         <v>30</v>
@@ -2909,11 +2900,14 @@
       <c r="M34" t="s">
         <v>30</v>
       </c>
+      <c r="N34" s="2">
+        <v>44888</v>
+      </c>
       <c r="O34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P34" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q34" t="s">
         <v>30</v>
@@ -2925,24 +2919,30 @@
         <v>32</v>
       </c>
       <c r="U34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+        <v>200000</v>
+      </c>
+      <c r="V34">
+        <v>2475</v>
+      </c>
+      <c r="W34">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="B35" s="2">
-        <v>43679</v>
+        <v>42037</v>
       </c>
       <c r="C35" t="s">
         <v>24</v>
       </c>
       <c r="D35" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="E35" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F35" t="s">
         <v>27</v>
@@ -2969,7 +2969,7 @@
         <v>30</v>
       </c>
       <c r="P35" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q35" t="s">
         <v>30</v>
@@ -2978,30 +2978,30 @@
         <v>30</v>
       </c>
       <c r="T35" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="U35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="B36" s="2">
-        <v>44144</v>
+        <v>42139</v>
       </c>
       <c r="C36" t="s">
         <v>24</v>
       </c>
       <c r="D36" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E36" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G36" t="s">
         <v>27</v>
@@ -3025,7 +3025,7 @@
         <v>30</v>
       </c>
       <c r="P36" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q36" t="s">
         <v>30</v>
@@ -3034,27 +3034,27 @@
         <v>30</v>
       </c>
       <c r="T36" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="U36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="B37" s="2">
-        <v>44306</v>
+        <v>42797</v>
       </c>
       <c r="C37" t="s">
         <v>24</v>
       </c>
       <c r="D37" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="E37" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F37" t="s">
         <v>27</v>
@@ -3096,18 +3096,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="B38" s="2">
-        <v>44634</v>
+        <v>43475</v>
       </c>
       <c r="C38" t="s">
         <v>24</v>
       </c>
       <c r="D38" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="E38" t="s">
         <v>34</v>
@@ -3152,21 +3152,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B39" s="2">
-        <v>45313</v>
+        <v>44634</v>
       </c>
       <c r="C39" t="s">
         <v>24</v>
       </c>
       <c r="D39" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="E39" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F39" t="s">
         <v>27</v>
@@ -3211,7 +3211,7 @@
   </sheetData>
   <autoFilter ref="A1:W39" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W39">
-      <sortCondition ref="J1:J39"/>
+      <sortCondition ref="E1:E39"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
